--- a/DoAnCuoiKy/Inputs.xlsx
+++ b/DoAnCuoiKy/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b2h16\OneDrive\Máy tính\TeamExcrice\DoAnCuoiKy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BCAD46-3887-4F0F-A691-7D9FAEB23596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0C3565-F2B9-4BB5-9B90-1C411A1324AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="42">
   <si>
     <t>Ngân hàng</t>
   </si>
@@ -76,6 +76,81 @@
   </si>
   <si>
     <t>Nguyen Van An</t>
+  </si>
+  <si>
+    <t>Năm mua</t>
+  </si>
+  <si>
+    <t>Bảo hiểm</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>Giá thuê một ngày</t>
+  </si>
+  <si>
+    <t>Tiền cọc</t>
+  </si>
+  <si>
+    <t>Giá đền xức xe</t>
+  </si>
+  <si>
+    <t>Giá đền bể bánh</t>
+  </si>
+  <si>
+    <t>Giá đền hư đèn</t>
+  </si>
+  <si>
+    <t>Ưu đãi</t>
+  </si>
+  <si>
+    <t>Tăng giá</t>
+  </si>
+  <si>
+    <t>Xe máy</t>
+  </si>
+  <si>
+    <t>Hãng xe</t>
+  </si>
+  <si>
+    <t>Tài khoản ngân hàng của chủ xe</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Aloma</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Số kilomet đã đi</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Tập lái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xe bốn chỗ </t>
+  </si>
+  <si>
+    <t>Vinfast Fadil</t>
+  </si>
+  <si>
+    <t>Đám cưới</t>
+  </si>
+  <si>
+    <t>Du lịch</t>
+  </si>
+  <si>
+    <t>Xe bảy chỗ</t>
   </si>
 </sst>
 </file>
@@ -83,12 +158,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,10 +198,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,28 +482,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>123</v>
       </c>
@@ -438,7 +527,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>124</v>
       </c>
@@ -446,7 +535,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>125</v>
       </c>
@@ -454,13 +543,13 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -477,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -494,7 +583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -511,7 +600,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -528,7 +617,1868 @@
         <v>125</v>
       </c>
     </row>
+    <row r="13" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44446</v>
+      </c>
+      <c r="D15">
+        <v>160</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>500000</v>
+      </c>
+      <c r="H15">
+        <v>100000</v>
+      </c>
+      <c r="I15">
+        <v>70000</v>
+      </c>
+      <c r="J15">
+        <v>100000</v>
+      </c>
+      <c r="K15">
+        <v>100000</v>
+      </c>
+      <c r="L15">
+        <v>150000</v>
+      </c>
+      <c r="M15">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44447</v>
+      </c>
+      <c r="D16">
+        <v>160</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16">
+        <v>500000</v>
+      </c>
+      <c r="H16">
+        <v>100000</v>
+      </c>
+      <c r="I16">
+        <v>70000</v>
+      </c>
+      <c r="J16">
+        <v>100000</v>
+      </c>
+      <c r="K16">
+        <v>100000</v>
+      </c>
+      <c r="L16">
+        <v>150000</v>
+      </c>
+      <c r="M16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>123</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44448</v>
+      </c>
+      <c r="D17">
+        <v>160</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>500000</v>
+      </c>
+      <c r="H17">
+        <v>100000</v>
+      </c>
+      <c r="I17">
+        <v>70000</v>
+      </c>
+      <c r="J17">
+        <v>100000</v>
+      </c>
+      <c r="K17">
+        <v>100000</v>
+      </c>
+      <c r="L17">
+        <v>150000</v>
+      </c>
+      <c r="M17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>124</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44449</v>
+      </c>
+      <c r="D18">
+        <v>160</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18">
+        <v>500000</v>
+      </c>
+      <c r="H18">
+        <v>100000</v>
+      </c>
+      <c r="I18">
+        <v>70000</v>
+      </c>
+      <c r="J18">
+        <v>100000</v>
+      </c>
+      <c r="K18">
+        <v>100000</v>
+      </c>
+      <c r="L18">
+        <v>150000</v>
+      </c>
+      <c r="M18">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>124</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44450</v>
+      </c>
+      <c r="D19">
+        <v>160</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>500000</v>
+      </c>
+      <c r="H19">
+        <v>100000</v>
+      </c>
+      <c r="I19">
+        <v>70000</v>
+      </c>
+      <c r="J19">
+        <v>100000</v>
+      </c>
+      <c r="K19">
+        <v>100000</v>
+      </c>
+      <c r="L19">
+        <v>150000</v>
+      </c>
+      <c r="M19">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44451</v>
+      </c>
+      <c r="D20">
+        <v>160</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20">
+        <v>500000</v>
+      </c>
+      <c r="H20">
+        <v>100000</v>
+      </c>
+      <c r="I20">
+        <v>70000</v>
+      </c>
+      <c r="J20">
+        <v>100000</v>
+      </c>
+      <c r="K20">
+        <v>100000</v>
+      </c>
+      <c r="L20">
+        <v>150000</v>
+      </c>
+      <c r="M20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>124</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44452</v>
+      </c>
+      <c r="D21">
+        <v>160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>500000</v>
+      </c>
+      <c r="H21">
+        <v>100000</v>
+      </c>
+      <c r="I21">
+        <v>70000</v>
+      </c>
+      <c r="J21">
+        <v>100000</v>
+      </c>
+      <c r="K21">
+        <v>100000</v>
+      </c>
+      <c r="L21">
+        <v>150000</v>
+      </c>
+      <c r="M21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44453</v>
+      </c>
+      <c r="D22">
+        <v>160</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22">
+        <v>500000</v>
+      </c>
+      <c r="H22">
+        <v>100000</v>
+      </c>
+      <c r="I22">
+        <v>70000</v>
+      </c>
+      <c r="J22">
+        <v>100000</v>
+      </c>
+      <c r="K22">
+        <v>100000</v>
+      </c>
+      <c r="L22">
+        <v>150000</v>
+      </c>
+      <c r="M22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44454</v>
+      </c>
+      <c r="D23">
+        <v>160</v>
+      </c>
+      <c r="E23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>500000</v>
+      </c>
+      <c r="H23">
+        <v>100000</v>
+      </c>
+      <c r="I23">
+        <v>70000</v>
+      </c>
+      <c r="J23">
+        <v>100000</v>
+      </c>
+      <c r="K23">
+        <v>100000</v>
+      </c>
+      <c r="L23">
+        <v>150000</v>
+      </c>
+      <c r="M23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44455</v>
+      </c>
+      <c r="D24">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>500000</v>
+      </c>
+      <c r="H24">
+        <v>100000</v>
+      </c>
+      <c r="I24">
+        <v>70000</v>
+      </c>
+      <c r="J24">
+        <v>100000</v>
+      </c>
+      <c r="K24">
+        <v>100000</v>
+      </c>
+      <c r="L24">
+        <v>150000</v>
+      </c>
+      <c r="M24">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44456</v>
+      </c>
+      <c r="D25">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>500000</v>
+      </c>
+      <c r="H25">
+        <v>100000</v>
+      </c>
+      <c r="I25">
+        <v>70000</v>
+      </c>
+      <c r="J25">
+        <v>100000</v>
+      </c>
+      <c r="K25">
+        <v>100000</v>
+      </c>
+      <c r="L25">
+        <v>150000</v>
+      </c>
+      <c r="M25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44457</v>
+      </c>
+      <c r="D26">
+        <v>160</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>500000</v>
+      </c>
+      <c r="H26">
+        <v>100000</v>
+      </c>
+      <c r="I26">
+        <v>70000</v>
+      </c>
+      <c r="J26">
+        <v>100000</v>
+      </c>
+      <c r="K26">
+        <v>100000</v>
+      </c>
+      <c r="L26">
+        <v>150000</v>
+      </c>
+      <c r="M26">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>125</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44458</v>
+      </c>
+      <c r="D27">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27">
+        <v>500000</v>
+      </c>
+      <c r="H27">
+        <v>100000</v>
+      </c>
+      <c r="I27">
+        <v>70000</v>
+      </c>
+      <c r="J27">
+        <v>100000</v>
+      </c>
+      <c r="K27">
+        <v>100000</v>
+      </c>
+      <c r="L27">
+        <v>150000</v>
+      </c>
+      <c r="M27">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>125</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44459</v>
+      </c>
+      <c r="D28">
+        <v>160</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28">
+        <v>500000</v>
+      </c>
+      <c r="H28">
+        <v>100000</v>
+      </c>
+      <c r="I28">
+        <v>70000</v>
+      </c>
+      <c r="J28">
+        <v>100000</v>
+      </c>
+      <c r="K28">
+        <v>100000</v>
+      </c>
+      <c r="L28">
+        <v>150000</v>
+      </c>
+      <c r="M28">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44446</v>
+      </c>
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>1000000</v>
+      </c>
+      <c r="H32">
+        <v>2000000</v>
+      </c>
+      <c r="I32">
+        <v>140000</v>
+      </c>
+      <c r="J32">
+        <v>200000</v>
+      </c>
+      <c r="K32">
+        <v>200000</v>
+      </c>
+      <c r="L32">
+        <v>300000</v>
+      </c>
+      <c r="M32">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44447</v>
+      </c>
+      <c r="D33">
+        <v>160</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33">
+        <v>1000000</v>
+      </c>
+      <c r="H33">
+        <v>2000000</v>
+      </c>
+      <c r="I33">
+        <v>140000</v>
+      </c>
+      <c r="J33">
+        <v>200000</v>
+      </c>
+      <c r="K33">
+        <v>200000</v>
+      </c>
+      <c r="L33">
+        <v>300000</v>
+      </c>
+      <c r="M33">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>123</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44448</v>
+      </c>
+      <c r="D34">
+        <v>160</v>
+      </c>
+      <c r="E34" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34">
+        <v>1000000</v>
+      </c>
+      <c r="H34">
+        <v>2000000</v>
+      </c>
+      <c r="I34">
+        <v>140000</v>
+      </c>
+      <c r="J34">
+        <v>200000</v>
+      </c>
+      <c r="K34">
+        <v>200000</v>
+      </c>
+      <c r="L34">
+        <v>300000</v>
+      </c>
+      <c r="M34">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44449</v>
+      </c>
+      <c r="D35">
+        <v>160</v>
+      </c>
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35">
+        <v>1000000</v>
+      </c>
+      <c r="H35">
+        <v>2000000</v>
+      </c>
+      <c r="I35">
+        <v>140000</v>
+      </c>
+      <c r="J35">
+        <v>200000</v>
+      </c>
+      <c r="K35">
+        <v>200000</v>
+      </c>
+      <c r="L35">
+        <v>300000</v>
+      </c>
+      <c r="M35">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>124</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44450</v>
+      </c>
+      <c r="D36">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36">
+        <v>1000000</v>
+      </c>
+      <c r="H36">
+        <v>2000000</v>
+      </c>
+      <c r="I36">
+        <v>140000</v>
+      </c>
+      <c r="J36">
+        <v>200000</v>
+      </c>
+      <c r="K36">
+        <v>200000</v>
+      </c>
+      <c r="L36">
+        <v>300000</v>
+      </c>
+      <c r="M36">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44451</v>
+      </c>
+      <c r="D37">
+        <v>160</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>1000000</v>
+      </c>
+      <c r="H37">
+        <v>2000000</v>
+      </c>
+      <c r="I37">
+        <v>140000</v>
+      </c>
+      <c r="J37">
+        <v>200000</v>
+      </c>
+      <c r="K37">
+        <v>200000</v>
+      </c>
+      <c r="L37">
+        <v>300000</v>
+      </c>
+      <c r="M37">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44452</v>
+      </c>
+      <c r="D38">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>1000000</v>
+      </c>
+      <c r="H38">
+        <v>2000000</v>
+      </c>
+      <c r="I38">
+        <v>140000</v>
+      </c>
+      <c r="J38">
+        <v>200000</v>
+      </c>
+      <c r="K38">
+        <v>200000</v>
+      </c>
+      <c r="L38">
+        <v>300000</v>
+      </c>
+      <c r="M38">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>124</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44453</v>
+      </c>
+      <c r="D39">
+        <v>160</v>
+      </c>
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>1000000</v>
+      </c>
+      <c r="H39">
+        <v>2000000</v>
+      </c>
+      <c r="I39">
+        <v>140000</v>
+      </c>
+      <c r="J39">
+        <v>200000</v>
+      </c>
+      <c r="K39">
+        <v>200000</v>
+      </c>
+      <c r="L39">
+        <v>300000</v>
+      </c>
+      <c r="M39">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44454</v>
+      </c>
+      <c r="D40">
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <v>1000000</v>
+      </c>
+      <c r="H40">
+        <v>2000000</v>
+      </c>
+      <c r="I40">
+        <v>140000</v>
+      </c>
+      <c r="J40">
+        <v>200000</v>
+      </c>
+      <c r="K40">
+        <v>200000</v>
+      </c>
+      <c r="L40">
+        <v>300000</v>
+      </c>
+      <c r="M40">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>125</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44455</v>
+      </c>
+      <c r="D41">
+        <v>160</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>1000000</v>
+      </c>
+      <c r="H41">
+        <v>2000000</v>
+      </c>
+      <c r="I41">
+        <v>140000</v>
+      </c>
+      <c r="J41">
+        <v>200000</v>
+      </c>
+      <c r="K41">
+        <v>200000</v>
+      </c>
+      <c r="L41">
+        <v>300000</v>
+      </c>
+      <c r="M41">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>125</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44456</v>
+      </c>
+      <c r="D42">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>1000000</v>
+      </c>
+      <c r="H42">
+        <v>2000000</v>
+      </c>
+      <c r="I42">
+        <v>140000</v>
+      </c>
+      <c r="J42">
+        <v>200000</v>
+      </c>
+      <c r="K42">
+        <v>200000</v>
+      </c>
+      <c r="L42">
+        <v>300000</v>
+      </c>
+      <c r="M42">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44457</v>
+      </c>
+      <c r="D43">
+        <v>160</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>1000000</v>
+      </c>
+      <c r="H43">
+        <v>2000000</v>
+      </c>
+      <c r="I43">
+        <v>140000</v>
+      </c>
+      <c r="J43">
+        <v>200000</v>
+      </c>
+      <c r="K43">
+        <v>200000</v>
+      </c>
+      <c r="L43">
+        <v>300000</v>
+      </c>
+      <c r="M43">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>125</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44458</v>
+      </c>
+      <c r="D44">
+        <v>160</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>1000000</v>
+      </c>
+      <c r="H44">
+        <v>2000000</v>
+      </c>
+      <c r="I44">
+        <v>140000</v>
+      </c>
+      <c r="J44">
+        <v>200000</v>
+      </c>
+      <c r="K44">
+        <v>200000</v>
+      </c>
+      <c r="L44">
+        <v>300000</v>
+      </c>
+      <c r="M44">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>125</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44459</v>
+      </c>
+      <c r="D45">
+        <v>160</v>
+      </c>
+      <c r="E45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>1000000</v>
+      </c>
+      <c r="H45">
+        <v>2000000</v>
+      </c>
+      <c r="I45">
+        <v>140000</v>
+      </c>
+      <c r="J45">
+        <v>200000</v>
+      </c>
+      <c r="K45">
+        <v>200000</v>
+      </c>
+      <c r="L45">
+        <v>300000</v>
+      </c>
+      <c r="M45">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" t="s">
+        <v>24</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44446</v>
+      </c>
+      <c r="D49">
+        <v>160</v>
+      </c>
+      <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49">
+        <v>2000000</v>
+      </c>
+      <c r="H49">
+        <v>3000000</v>
+      </c>
+      <c r="I49">
+        <v>200000</v>
+      </c>
+      <c r="J49">
+        <v>300000</v>
+      </c>
+      <c r="K49">
+        <v>300000</v>
+      </c>
+      <c r="L49">
+        <v>500000</v>
+      </c>
+      <c r="M49">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44447</v>
+      </c>
+      <c r="D50">
+        <v>160</v>
+      </c>
+      <c r="E50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50">
+        <v>2000000</v>
+      </c>
+      <c r="H50">
+        <v>3000000</v>
+      </c>
+      <c r="I50">
+        <v>200000</v>
+      </c>
+      <c r="J50">
+        <v>300000</v>
+      </c>
+      <c r="K50">
+        <v>300000</v>
+      </c>
+      <c r="L50">
+        <v>500000</v>
+      </c>
+      <c r="M50">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>123</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44448</v>
+      </c>
+      <c r="D51">
+        <v>160</v>
+      </c>
+      <c r="E51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" t="s">
+        <v>39</v>
+      </c>
+      <c r="G51">
+        <v>2000000</v>
+      </c>
+      <c r="H51">
+        <v>3000000</v>
+      </c>
+      <c r="I51">
+        <v>200000</v>
+      </c>
+      <c r="J51">
+        <v>300000</v>
+      </c>
+      <c r="K51">
+        <v>300000</v>
+      </c>
+      <c r="L51">
+        <v>500000</v>
+      </c>
+      <c r="M51">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44449</v>
+      </c>
+      <c r="D52">
+        <v>160</v>
+      </c>
+      <c r="E52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52">
+        <v>2000000</v>
+      </c>
+      <c r="H52">
+        <v>3000000</v>
+      </c>
+      <c r="I52">
+        <v>200000</v>
+      </c>
+      <c r="J52">
+        <v>300000</v>
+      </c>
+      <c r="K52">
+        <v>300000</v>
+      </c>
+      <c r="L52">
+        <v>500000</v>
+      </c>
+      <c r="M52">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44450</v>
+      </c>
+      <c r="D53">
+        <v>160</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53">
+        <v>2000000</v>
+      </c>
+      <c r="H53">
+        <v>3000000</v>
+      </c>
+      <c r="I53">
+        <v>200000</v>
+      </c>
+      <c r="J53">
+        <v>300000</v>
+      </c>
+      <c r="K53">
+        <v>300000</v>
+      </c>
+      <c r="L53">
+        <v>500000</v>
+      </c>
+      <c r="M53">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44451</v>
+      </c>
+      <c r="D54">
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54">
+        <v>2000000</v>
+      </c>
+      <c r="H54">
+        <v>3000000</v>
+      </c>
+      <c r="I54">
+        <v>200000</v>
+      </c>
+      <c r="J54">
+        <v>300000</v>
+      </c>
+      <c r="K54">
+        <v>300000</v>
+      </c>
+      <c r="L54">
+        <v>500000</v>
+      </c>
+      <c r="M54">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44452</v>
+      </c>
+      <c r="D55">
+        <v>160</v>
+      </c>
+      <c r="E55" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55">
+        <v>2000000</v>
+      </c>
+      <c r="H55">
+        <v>3000000</v>
+      </c>
+      <c r="I55">
+        <v>200000</v>
+      </c>
+      <c r="J55">
+        <v>300000</v>
+      </c>
+      <c r="K55">
+        <v>300000</v>
+      </c>
+      <c r="L55">
+        <v>500000</v>
+      </c>
+      <c r="M55">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44453</v>
+      </c>
+      <c r="D56">
+        <v>160</v>
+      </c>
+      <c r="E56" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" t="s">
+        <v>39</v>
+      </c>
+      <c r="G56">
+        <v>2000000</v>
+      </c>
+      <c r="H56">
+        <v>3000000</v>
+      </c>
+      <c r="I56">
+        <v>200000</v>
+      </c>
+      <c r="J56">
+        <v>300000</v>
+      </c>
+      <c r="K56">
+        <v>300000</v>
+      </c>
+      <c r="L56">
+        <v>500000</v>
+      </c>
+      <c r="M56">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44454</v>
+      </c>
+      <c r="D57">
+        <v>160</v>
+      </c>
+      <c r="E57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57">
+        <v>2000000</v>
+      </c>
+      <c r="H57">
+        <v>3000000</v>
+      </c>
+      <c r="I57">
+        <v>200000</v>
+      </c>
+      <c r="J57">
+        <v>300000</v>
+      </c>
+      <c r="K57">
+        <v>300000</v>
+      </c>
+      <c r="L57">
+        <v>500000</v>
+      </c>
+      <c r="M57">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44455</v>
+      </c>
+      <c r="D58">
+        <v>160</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
+        <v>39</v>
+      </c>
+      <c r="G58">
+        <v>2000000</v>
+      </c>
+      <c r="H58">
+        <v>3000000</v>
+      </c>
+      <c r="I58">
+        <v>200000</v>
+      </c>
+      <c r="J58">
+        <v>300000</v>
+      </c>
+      <c r="K58">
+        <v>300000</v>
+      </c>
+      <c r="L58">
+        <v>500000</v>
+      </c>
+      <c r="M58">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>125</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44456</v>
+      </c>
+      <c r="D59">
+        <v>160</v>
+      </c>
+      <c r="E59" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59">
+        <v>2000000</v>
+      </c>
+      <c r="H59">
+        <v>3000000</v>
+      </c>
+      <c r="I59">
+        <v>200000</v>
+      </c>
+      <c r="J59">
+        <v>300000</v>
+      </c>
+      <c r="K59">
+        <v>300000</v>
+      </c>
+      <c r="L59">
+        <v>500000</v>
+      </c>
+      <c r="M59">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44457</v>
+      </c>
+      <c r="D60">
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G60">
+        <v>2000000</v>
+      </c>
+      <c r="H60">
+        <v>3000000</v>
+      </c>
+      <c r="I60">
+        <v>200000</v>
+      </c>
+      <c r="J60">
+        <v>300000</v>
+      </c>
+      <c r="K60">
+        <v>300000</v>
+      </c>
+      <c r="L60">
+        <v>500000</v>
+      </c>
+      <c r="M60">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44458</v>
+      </c>
+      <c r="D61">
+        <v>160</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G61">
+        <v>2000000</v>
+      </c>
+      <c r="H61">
+        <v>3000000</v>
+      </c>
+      <c r="I61">
+        <v>200000</v>
+      </c>
+      <c r="J61">
+        <v>300000</v>
+      </c>
+      <c r="K61">
+        <v>300000</v>
+      </c>
+      <c r="L61">
+        <v>500000</v>
+      </c>
+      <c r="M61">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>125</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44459</v>
+      </c>
+      <c r="D62">
+        <v>160</v>
+      </c>
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62">
+        <v>2000000</v>
+      </c>
+      <c r="H62">
+        <v>3000000</v>
+      </c>
+      <c r="I62">
+        <v>200000</v>
+      </c>
+      <c r="J62">
+        <v>300000</v>
+      </c>
+      <c r="K62">
+        <v>300000</v>
+      </c>
+      <c r="L62">
+        <v>500000</v>
+      </c>
+      <c r="M62">
+        <v>300000</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>